--- a/Project 2.xlsx
+++ b/Project 2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://husteduvn-my.sharepoint.com/personal/giang_tq183517_sis_hust_edu_vn/Documents/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://husteduvn-my.sharepoint.com/personal/giang_tq183517_sis_hust_edu_vn/Documents/Desktop/project-2/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="8_{3DDE4385-126A-4CCE-B6D2-4D2DFFA5B122}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{73A7911A-9B82-4244-9283-9B05975625BD}"/>
+    <workbookView xWindow="1100" yWindow="1100" windowWidth="14400" windowHeight="7360" xr2:uid="{73A7911A-9B82-4244-9283-9B05975625BD}"/>
   </bookViews>
   <sheets>
     <sheet name="Trang_tính1" sheetId="1" r:id="rId1"/>
@@ -628,8 +628,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F78087A3-15E9-496C-B725-16C3ED50A095}">
   <dimension ref="A1:F48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -640,7 +640,7 @@
     <col min="6" max="6" width="23.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="79" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" ht="53" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -682,7 +682,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="125.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" ht="25.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="3" t="s">
         <v>9</v>
       </c>
@@ -696,7 +696,7 @@
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
     </row>
-    <row r="5" spans="1:6" ht="100.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="3"/>
       <c r="B5" s="4">
         <v>2</v>
@@ -708,7 +708,7 @@
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
     </row>
-    <row r="6" spans="1:6" ht="338" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:6" ht="50.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="3"/>
       <c r="B6" s="4">
         <v>3</v>
@@ -720,7 +720,7 @@
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
     </row>
-    <row r="7" spans="1:6" ht="138" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:6" ht="25.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="3"/>
       <c r="B7" s="4">
         <v>4</v>
@@ -732,7 +732,7 @@
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
     </row>
-    <row r="8" spans="1:6" ht="89" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="3"/>
       <c r="B8" s="4">
         <v>5</v>
@@ -744,7 +744,7 @@
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
     </row>
-    <row r="9" spans="1:6" ht="100.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="3"/>
       <c r="B9" s="4">
         <v>6</v>
@@ -756,7 +756,7 @@
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
     </row>
-    <row r="10" spans="1:6" ht="275.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:6" ht="38" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="3" t="s">
         <v>16</v>
       </c>
@@ -772,7 +772,7 @@
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
     </row>
-    <row r="11" spans="1:6" ht="150.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:6" ht="25.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="3"/>
       <c r="B11" s="4">
         <v>2</v>
@@ -786,7 +786,7 @@
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
     </row>
-    <row r="12" spans="1:6" ht="175.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:6" ht="25.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="3"/>
       <c r="B12" s="4">
         <v>3</v>
@@ -800,7 +800,7 @@
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
     </row>
-    <row r="13" spans="1:6" ht="200.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:6" ht="25.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="3"/>
       <c r="B13" s="4">
         <v>4</v>
@@ -814,7 +814,7 @@
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
     </row>
-    <row r="14" spans="1:6" ht="250.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:6" ht="38" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="3"/>
       <c r="B14" s="4">
         <v>5</v>
@@ -828,7 +828,7 @@
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
     </row>
-    <row r="15" spans="1:6" ht="325.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:6" ht="38" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="3"/>
       <c r="B15" s="4">
         <v>6</v>
@@ -842,7 +842,7 @@
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
     </row>
-    <row r="16" spans="1:6" ht="263" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:6" ht="38" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="3"/>
       <c r="B16" s="4">
         <v>7</v>
@@ -856,7 +856,7 @@
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
     </row>
-    <row r="17" spans="1:6" ht="338" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:6" ht="50.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="3"/>
       <c r="B17" s="4">
         <v>8</v>
@@ -870,7 +870,7 @@
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
     </row>
-    <row r="18" spans="1:6" ht="325.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:6" ht="38" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="3"/>
       <c r="B18" s="4">
         <v>9</v>
@@ -884,7 +884,7 @@
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
     </row>
-    <row r="19" spans="1:6" ht="150.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:6" ht="25.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" s="3"/>
       <c r="B19" s="4">
         <v>10</v>
@@ -898,7 +898,7 @@
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
     </row>
-    <row r="20" spans="1:6" ht="138" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:6" ht="25.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="3"/>
       <c r="B20" s="4">
         <v>11</v>
@@ -912,7 +912,7 @@
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
     </row>
-    <row r="21" spans="1:6" ht="163" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:6" ht="38" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="3"/>
       <c r="B21" s="4">
         <v>12</v>
@@ -926,7 +926,7 @@
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
     </row>
-    <row r="22" spans="1:6" ht="50.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:6" ht="25.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="3" t="s">
         <v>30</v>
       </c>
@@ -942,7 +942,7 @@
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
     </row>
-    <row r="23" spans="1:6" ht="50.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="3"/>
       <c r="B23" s="4">
         <v>14</v>
@@ -956,7 +956,7 @@
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
     </row>
-    <row r="24" spans="1:6" ht="75.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A24" s="3"/>
       <c r="B24" s="4">
         <v>15</v>
@@ -970,7 +970,7 @@
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
     </row>
-    <row r="25" spans="1:6" ht="225.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:6" ht="38" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25" s="3"/>
       <c r="B25" s="4">
         <v>16</v>
@@ -984,7 +984,7 @@
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
     </row>
-    <row r="26" spans="1:6" ht="175.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:6" ht="25.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="3"/>
       <c r="B26" s="4">
         <v>17</v>
@@ -998,7 +998,7 @@
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
     </row>
-    <row r="27" spans="1:6" ht="238" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:6" ht="25.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A27" s="3"/>
       <c r="B27" s="4">
         <v>18</v>
@@ -1012,7 +1012,7 @@
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
     </row>
-    <row r="28" spans="1:6" ht="163" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:6" ht="38" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28" s="3"/>
       <c r="B28" s="4">
         <v>19</v>
@@ -1026,7 +1026,7 @@
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
     </row>
-    <row r="29" spans="1:6" ht="113" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:6" ht="25.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A29" s="3"/>
       <c r="B29" s="4">
         <v>20</v>
@@ -1040,7 +1040,7 @@
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
     </row>
-    <row r="30" spans="1:6" ht="88" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:6" ht="25.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A30" s="3" t="s">
         <v>41</v>
       </c>
@@ -1054,7 +1054,7 @@
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
     </row>
-    <row r="31" spans="1:6" ht="88" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A31" s="3"/>
       <c r="B31" s="4">
         <v>2</v>
@@ -1066,7 +1066,7 @@
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
     </row>
-    <row r="32" spans="1:6" ht="50.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:6" ht="38" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A32" s="3"/>
       <c r="B32" s="4">
         <v>3</v>
@@ -1080,7 +1080,7 @@
       </c>
       <c r="F32" s="3"/>
     </row>
-    <row r="33" spans="1:6" ht="138" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:6" ht="25.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A33" s="3"/>
       <c r="B33" s="4">
         <v>4</v>
@@ -1092,7 +1092,7 @@
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
     </row>
-    <row r="34" spans="1:6" ht="75.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A34" s="3"/>
       <c r="B34" s="4">
         <v>5</v>
@@ -1104,7 +1104,7 @@
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
     </row>
-    <row r="35" spans="1:6" ht="75.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A35" s="3"/>
       <c r="B35" s="4">
         <v>6</v>
@@ -1116,7 +1116,7 @@
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
     </row>
-    <row r="36" spans="1:6" ht="125.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:6" ht="25.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A36" s="3"/>
       <c r="B36" s="4">
         <v>7</v>
@@ -1128,7 +1128,7 @@
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
     </row>
-    <row r="37" spans="1:6" ht="213" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:6" ht="38" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="3"/>
       <c r="B37" s="4">
         <v>8</v>
@@ -1140,7 +1140,7 @@
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
     </row>
-    <row r="38" spans="1:6" ht="225.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:6" ht="38" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A38" s="3"/>
       <c r="B38" s="4">
         <v>9</v>
@@ -1152,7 +1152,7 @@
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
     </row>
-    <row r="39" spans="1:6" ht="409.6" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:6" ht="88" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A39" s="3"/>
       <c r="B39" s="4">
         <v>10</v>
@@ -1166,7 +1166,7 @@
       </c>
       <c r="F39" s="3"/>
     </row>
-    <row r="40" spans="1:6" ht="200.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:6" ht="25.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A40" s="3"/>
       <c r="B40" s="4">
         <v>11</v>
@@ -1202,7 +1202,7 @@
       <c r="E43" s="3"/>
       <c r="F43" s="3"/>
     </row>
-    <row r="44" spans="1:6" ht="313" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:6" ht="38" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A44" s="3" t="s">
         <v>55</v>
       </c>
@@ -1216,7 +1216,7 @@
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
     </row>
-    <row r="45" spans="1:6" ht="275.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:6" ht="38" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A45" s="3"/>
       <c r="B45" s="4">
         <v>2</v>
@@ -1228,7 +1228,7 @@
       <c r="E45" s="3"/>
       <c r="F45" s="3"/>
     </row>
-    <row r="46" spans="1:6" ht="338" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:6" ht="38" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A46" s="3"/>
       <c r="B46" s="4">
         <v>3</v>
@@ -1240,7 +1240,7 @@
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
     </row>
-    <row r="47" spans="1:6" ht="150.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:6" ht="25.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A47" s="3"/>
       <c r="B47" s="4">
         <v>4</v>
@@ -1252,7 +1252,7 @@
       <c r="E47" s="3"/>
       <c r="F47" s="3"/>
     </row>
-    <row r="48" spans="1:6" ht="138" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:6" ht="25.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A48" s="3"/>
       <c r="B48" s="4">
         <v>5</v>

--- a/Project 2.xlsx
+++ b/Project 2.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="8_{3DDE4385-126A-4CCE-B6D2-4D2DFFA5B122}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1100" yWindow="1100" windowWidth="14400" windowHeight="7360" xr2:uid="{73A7911A-9B82-4244-9283-9B05975625BD}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{73A7911A-9B82-4244-9283-9B05975625BD}"/>
   </bookViews>
   <sheets>
     <sheet name="Trang_tính1" sheetId="1" r:id="rId1"/>
@@ -628,8 +628,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F78087A3-15E9-496C-B725-16C3ED50A095}">
   <dimension ref="A1:F48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
